--- a/object2excel/src/test/resource/测试类型.xlsx
+++ b/object2excel/src/test/resource/测试类型.xlsx
@@ -40,28 +40,28 @@
     <t>预制计划结束</t>
   </si>
   <si>
+    <t>进场计划开始</t>
+  </si>
+  <si>
+    <t>进场计划结束</t>
+  </si>
+  <si>
+    <t>安装计划开始</t>
+  </si>
+  <si>
+    <t>安装计划结束</t>
+  </si>
+  <si>
     <t>预制实际开始</t>
   </si>
   <si>
     <t>预制实际结束</t>
   </si>
   <si>
-    <t>进场计划开始</t>
-  </si>
-  <si>
-    <t>进场计划结束</t>
-  </si>
-  <si>
     <t>进场实际开始</t>
   </si>
   <si>
     <t>进场实际结束</t>
-  </si>
-  <si>
-    <t>安装计划开始</t>
-  </si>
-  <si>
-    <t>安装计划结束</t>
   </si>
   <si>
     <t>安装实际开始</t>
@@ -300,27 +300,27 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="F2" t="n" s="6">
+        <v>43423.462267372684</v>
+      </c>
+      <c r="G2" t="n" s="7">
+        <v>43423.462267372684</v>
+      </c>
       <c r="H2" t="n" s="8">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="I2" t="n" s="9">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
-      <c r="L2" t="n" s="12">
-        <v>43422.83260581019</v>
-      </c>
-      <c r="M2" t="n" s="13">
-        <v>43422.83260581019</v>
-      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13"/>
       <c r="N2" t="n" s="14">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="O2" s="15"/>
       <c r="P2" t="s" s="16">
@@ -338,27 +338,27 @@
         <v>5</v>
       </c>
       <c r="D3" t="n" s="4">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
+      <c r="F3" t="n" s="6">
+        <v>43423.462267372684</v>
+      </c>
+      <c r="G3" t="n" s="7">
+        <v>43423.462267372684</v>
+      </c>
       <c r="H3" t="n" s="8">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="I3" t="n" s="9">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
-      <c r="L3" t="n" s="12">
-        <v>43422.83260581019</v>
-      </c>
-      <c r="M3" t="n" s="13">
-        <v>43422.83260581019</v>
-      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
       <c r="N3" t="n" s="14">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" t="s" s="16">
@@ -376,27 +376,27 @@
         <v>5</v>
       </c>
       <c r="D4" t="n" s="4">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
+      <c r="F4" t="n" s="6">
+        <v>43423.462267372684</v>
+      </c>
+      <c r="G4" t="n" s="7">
+        <v>43423.462267372684</v>
+      </c>
       <c r="H4" t="n" s="8">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="I4" t="n" s="9">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" t="n" s="12">
-        <v>43422.83260581019</v>
-      </c>
-      <c r="M4" t="n" s="13">
-        <v>43422.83260581019</v>
-      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="13"/>
       <c r="N4" t="n" s="14">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" t="s" s="16">
@@ -414,27 +414,27 @@
         <v>5</v>
       </c>
       <c r="D5" t="n" s="4">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
+      <c r="F5" t="n" s="6">
+        <v>43423.462267372684</v>
+      </c>
+      <c r="G5" t="n" s="7">
+        <v>43423.462267372684</v>
+      </c>
       <c r="H5" t="n" s="8">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="I5" t="n" s="9">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="11"/>
-      <c r="L5" t="n" s="12">
-        <v>43422.83260581019</v>
-      </c>
-      <c r="M5" t="n" s="13">
-        <v>43422.83260581019</v>
-      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13"/>
       <c r="N5" t="n" s="14">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" t="s" s="16">
@@ -452,27 +452,27 @@
         <v>5</v>
       </c>
       <c r="D6" t="n" s="4">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
+      <c r="F6" t="n" s="6">
+        <v>43423.462267372684</v>
+      </c>
+      <c r="G6" t="n" s="7">
+        <v>43423.462267372684</v>
+      </c>
       <c r="H6" t="n" s="8">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="I6" t="n" s="9">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="11"/>
-      <c r="L6" t="n" s="12">
-        <v>43422.83260581019</v>
-      </c>
-      <c r="M6" t="n" s="13">
-        <v>43422.83260581019</v>
-      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
       <c r="N6" t="n" s="14">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" t="s" s="16">
@@ -480,7 +480,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" formatCells="false" formatColumns="false" formatRows="false" password="E7D9"/>
+  <sheetProtection sheet="true" formatCells="false" formatColumns="false" formatRows="false" password="C899"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -516,16 +516,16 @@
         <v>9</v>
       </c>
       <c r="H1" t="s" s="24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s" s="25">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s" s="26">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s" s="27">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s" s="28">
         <v>18</v>
@@ -542,17 +542,17 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="20">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" t="n" s="24">
-        <v>43422.83260581019</v>
-      </c>
-      <c r="I2" t="n" s="25">
-        <v>43422.83260581019</v>
-      </c>
+      <c r="F2" t="n" s="22">
+        <v>43423.462267372684</v>
+      </c>
+      <c r="G2" t="n" s="23">
+        <v>43423.462267372684</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="26"/>
       <c r="K2" s="27"/>
       <c r="L2" t="s" s="28">
@@ -570,17 +570,17 @@
         <v>5</v>
       </c>
       <c r="D3" t="n" s="20">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" t="n" s="24">
-        <v>43422.83260581019</v>
-      </c>
-      <c r="I3" t="n" s="25">
-        <v>43422.83260581019</v>
-      </c>
+      <c r="F3" t="n" s="22">
+        <v>43423.462267372684</v>
+      </c>
+      <c r="G3" t="n" s="23">
+        <v>43423.462267372684</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="26"/>
       <c r="K3" s="27"/>
       <c r="L3" t="s" s="28">
@@ -598,17 +598,17 @@
         <v>5</v>
       </c>
       <c r="D4" t="n" s="20">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" t="n" s="24">
-        <v>43422.83260581019</v>
-      </c>
-      <c r="I4" t="n" s="25">
-        <v>43422.83260581019</v>
-      </c>
+      <c r="F4" t="n" s="22">
+        <v>43423.462267372684</v>
+      </c>
+      <c r="G4" t="n" s="23">
+        <v>43423.462267372684</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="26"/>
       <c r="K4" s="27"/>
       <c r="L4" t="s" s="28">
@@ -626,17 +626,17 @@
         <v>5</v>
       </c>
       <c r="D5" t="n" s="20">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" t="n" s="24">
-        <v>43422.83260581019</v>
-      </c>
-      <c r="I5" t="n" s="25">
-        <v>43422.83260581019</v>
-      </c>
+      <c r="F5" t="n" s="22">
+        <v>43423.462267372684</v>
+      </c>
+      <c r="G5" t="n" s="23">
+        <v>43423.462267372684</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="26"/>
       <c r="K5" s="27"/>
       <c r="L5" t="s" s="28">
@@ -644,7 +644,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" formatCells="false" formatColumns="false" formatRows="false" password="CFD9"/>
+  <sheetProtection sheet="true" formatCells="false" formatColumns="false" formatRows="false" password="E899"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -674,10 +674,10 @@
         <v>7</v>
       </c>
       <c r="F1" t="s" s="34">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s" s="35">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s" s="36">
         <v>18</v>
@@ -694,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="32">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="34"/>
@@ -714,7 +714,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="n" s="32">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="34"/>
@@ -734,7 +734,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="n" s="32">
-        <v>43422.83260581019</v>
+        <v>43423.462267372684</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
@@ -744,7 +744,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" formatCells="false" formatColumns="false" formatRows="false" password="9FDA"/>
+  <sheetProtection sheet="true" formatCells="false" formatColumns="false" formatRows="false" password="B899"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>